--- a/conversation.xlsx
+++ b/conversation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aekkachaichatpanglurlurt/aifood/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuipied-my.sharepoint.com/personal/aekkachai_cha_dome_tu_ac_th/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B30846-F1CF-9A4A-BC46-62F518E27F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9945D232-B940-854E-AA5A-070DA16717B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16080" xr2:uid="{964725B4-DD51-FB46-92AC-DFAE88AA8A1B}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980" xr2:uid="{964725B4-DD51-FB46-92AC-DFAE88AA8A1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>สวัสดีครับ</t>
   </si>
@@ -44,13 +44,7 @@
     <t>intent</t>
   </si>
   <si>
-    <t>decision</t>
-  </si>
-  <si>
     <t>callback</t>
-  </si>
-  <si>
-    <t>สวัสดี</t>
   </si>
   <si>
     <t>สวัสดีคะ</t>
@@ -119,8 +113,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,123 +432,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF24229C-1D41-DC47-A0E2-1C20AB76FF3B}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
